--- a/data/Tenantchat.xlsx
+++ b/data/Tenantchat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\github_repos\work-19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0A1412-D6AE-41A4-865F-487002534FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7374C6-3989-41E3-9011-0E20A9C0CFC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="664" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="664" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Deposit Deduction" sheetId="1" r:id="rId1"/>
@@ -724,8 +724,8 @@
   </sheetPr>
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -794,7 +794,7 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
@@ -829,13 +829,13 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
